--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2577932.011684211</v>
+        <v>2684005.609837055</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8996263.366019316</v>
+        <v>9011415.281147046</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>267.2155695213795</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>80.52402110376356</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>135.2881583620594</v>
       </c>
       <c r="E4" t="n">
-        <v>4.384045067894734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>46.977614585541</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>29.69832181894981</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>10.71516457456273</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.86369923813621</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>78.61867634065935</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>70.09223901246871</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9398757025641</v>
+        <v>168.8664936943856</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.268486125805158</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.6244980900704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>189.4027099929735</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,25 +2289,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>134.0367616438387</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>72.78315874934748</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>271.4983462346715</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6127326838977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>71.39698738222812</v>
       </c>
       <c r="X31" t="n">
-        <v>109.040488224226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>53.26309598424436</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,19 +3240,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>258.3665043780525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206844</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>52.57516893523083</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,16 +3477,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>211.6917002284518</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>73.78417491007316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>133.4811715458538</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.90570098813</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>15.9345014072213</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.1477159870284</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>37.40501058442985</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.898819086399</v>
+        <v>1488.368453810658</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1488.368453810658</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1488.368453810658</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1102.580201212414</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>691.5942964228066</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.637991126332</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1600.498659150521</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>845.9911918222188</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>850.8032380291685</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="C4" t="n">
-        <v>681.8670551012616</v>
+        <v>503.8010502583393</v>
       </c>
       <c r="D4" t="n">
-        <v>531.7504156889258</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.012987209659</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X4" t="n">
-        <v>1071.595817172699</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="Y4" t="n">
-        <v>850.8032380291685</v>
+        <v>672.7372331862462</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796256</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1186.797238312014</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>801.00898571377</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1103.432086384511</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1103.432086384511</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>875.4425354864942</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>654.6499563429641</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.4618728343356</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1847.881743703988</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1656.195859530815</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1434.429244100341</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1145.326377225984</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>890.6418890200973</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="X10" t="n">
-        <v>899.2544519778658</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.4618728343356</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.83890577277</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>3658.217393399322</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>1842.070412183399</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>1587.385923977512</v>
+        <v>4041.592414847077</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>3752.175244810116</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>2346.760538432045</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>2680.685310603266</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>2680.685310603266</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543135</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1159.460611876424</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>931.4710609784063</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>931.4710609784063</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.58852738579</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.914133601549</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228101</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532801</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253733</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6503,10 +6505,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3474.685803651586</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4102.283767206192</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.19349744548</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408905</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>1034.14228831466</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>813.3497091711303</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762389</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978148</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.3254586047</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>3113.560578231869</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>2944.624395303963</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>2794.507755891627</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>2646.594662309234</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>2646.594662309234</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>2479.398563024114</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866312</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866312</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296636</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822174</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998114</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729149</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389157</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098142</v>
       </c>
       <c r="P34" t="n">
         <v>4571.634917671694</v>
@@ -6886,22 +6888,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>4151.857387650098</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.88112060156</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703542</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L36" t="n">
-        <v>2878.328163333972</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>3475.706650960524</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>4103.30461451513</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>4655.214344754417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4655.214344754417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>809.0422355233313</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C37" t="n">
-        <v>640.1060525954244</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1983.232545256808</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1694.157318601005</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V37" t="n">
-        <v>1439.472830395119</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W37" t="n">
-        <v>1439.472830395119</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.483279497101</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.6907003535711</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,19 +7435,19 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590558</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2233.355914590558</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>565.7099969556945</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,10 +7788,10 @@
         <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>527.7722521572603</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
         <v>343.0994656851783</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.25823202432809</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.89210447937322</v>
+        <v>10.96548648755174</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>144.165476520764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.99097492814197</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>36.30694539606361</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>179.3544845744805</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>15.02465210191951</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.21924749803964</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="X31" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>126.5688841976929</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>28.15649395853848</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>127.2568112467065</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.713750098836442</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>74.83129810813919</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>118.6564717779742</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>130.4994612393479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>109.0289520621393</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>787918.9529162295</v>
+        <v>795643.4586676216</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787918.9529162295</v>
+        <v>795643.4586676216</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.5412506661</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309562</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309561</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744339</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.25639174418</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
+        <v>8727.256391744202</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-867759.5615606547</v>
+        <v>-686378.2771013203</v>
       </c>
       <c r="C6" t="n">
-        <v>460985.1841669377</v>
+        <v>428373.5064745992</v>
       </c>
       <c r="D6" t="n">
-        <v>460985.1841669376</v>
+        <v>268358.0437265998</v>
       </c>
       <c r="E6" t="n">
-        <v>210455.0317289986</v>
+        <v>210455.0317289982</v>
       </c>
       <c r="F6" t="n">
+        <v>535867.4935363537</v>
+      </c>
+      <c r="G6" t="n">
         <v>535867.4935363538</v>
       </c>
-      <c r="G6" t="n">
-        <v>535867.4935363533</v>
-      </c>
       <c r="H6" t="n">
-        <v>535867.4935363539</v>
+        <v>535867.4935363538</v>
       </c>
       <c r="I6" t="n">
-        <v>535867.4935363538</v>
+        <v>535867.4935363536</v>
       </c>
       <c r="J6" t="n">
-        <v>318336.2911390764</v>
+        <v>368262.315726371</v>
       </c>
       <c r="K6" t="n">
-        <v>535867.4935363533</v>
+        <v>535867.4935363537</v>
       </c>
       <c r="L6" t="n">
-        <v>535867.4935363538</v>
+        <v>487573.5235281629</v>
       </c>
       <c r="M6" t="n">
-        <v>450812.4656008417</v>
+        <v>450812.4656008419</v>
       </c>
       <c r="N6" t="n">
         <v>535867.4935363536</v>
       </c>
       <c r="O6" t="n">
-        <v>535867.4935363536</v>
+        <v>535867.4935363538</v>
       </c>
       <c r="P6" t="n">
-        <v>535867.4935363539</v>
+        <v>535867.4935363537</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>144.3321332515745</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>289.2070795747055</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.32731465615294</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0499175786744</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>307.705427035142</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>377.1777239227616</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>241.4224787492653</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>309.8193423825467</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>10.31347632938798</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>155.6174163765684</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>491.819738231079</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860882993</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32546,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>243.1729913598529</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>526.2989357561987</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>407.2177391203961</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,10 +33502,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305189</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>553.2044093850076</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>405.455331617202</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>357.8453308167487</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35659,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496596</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>394.9572236728654</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>265.0837051983777</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066174</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2684005.609837055</v>
+        <v>2679909.96833229</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>97.09162836901297</v>
       </c>
       <c r="G2" t="n">
-        <v>267.2155695213795</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>135.2881583620594</v>
+        <v>25.31452326161428</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.69832181894981</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>210.3941348577829</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.71516457456273</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>44.86369923813621</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>78.61867634065935</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.8664936943856</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>207.0967504439659</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>189.4027099929735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>72.78315874934748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>105.11626575513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>78.14939830226075</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>71.39698738222812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.26309598424436</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206844</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.57516893523083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>133.4811715458538</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3796,13 +3796,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.90570098813</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>80.5641289012156</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>127.1477159870284</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>34.21058558914873</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1488.368453810658</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C2" t="n">
-        <v>1488.368453810658</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="D2" t="n">
-        <v>1488.368453810658</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="E2" t="n">
-        <v>1102.580201212414</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="F2" t="n">
-        <v>691.5942964228066</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.50778578647</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810658</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222188</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.7372331862462</v>
+        <v>814.3978474553237</v>
       </c>
       <c r="C4" t="n">
-        <v>503.8010502583393</v>
+        <v>645.4616645274168</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4524,16 +4524,16 @@
         <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232067</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W4" t="n">
-        <v>672.7372331862462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="X4" t="n">
-        <v>672.7372331862462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="Y4" t="n">
-        <v>672.7372331862462</v>
+        <v>996.0463122855634</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.062936918765</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C5" t="n">
-        <v>1545.062936918765</v>
+        <v>741.125668660897</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.797238312014</v>
+        <v>741.125668660897</v>
       </c>
       <c r="E5" t="n">
-        <v>801.00898571377</v>
+        <v>741.125668660897</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>330.1397638712894</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918765</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918765</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.062936918765</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.0014915127243</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>473.0014915127243</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.432086384511</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1103.432086384511</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>875.4425354864942</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.6499563429641</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.17820394412</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.215687003708</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008242</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1847.881743703988</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1656.195859530815</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1434.429244100341</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1145.326377225984</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>890.6418890200973</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>601.2247189831368</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>601.2247189831368</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396066</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5363,16 +5363,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>366.9636532421608</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2346.760538432045</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2680.685310603266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2680.685310603266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
         <v>697.5276345711974</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.112710026075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3113.560578231869</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2944.624395303963</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2794.507755891627</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309234</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309234</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866312</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296636</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822174</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998114</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729149</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389157</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098142</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>3167.361685286662</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1620.602091394371</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.18492135741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7435,13 +7435,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7450,13 +7450,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.1060525954244</v>
+        <v>1097.958364892466</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>929.022181964559</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>778.9055425522232</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>630.9924489698301</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>484.1025014719197</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>316.9064021867997</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.1945710289977</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1559.953817504172</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1270.536647467212</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1042.547096569194</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>821.7545174256642</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>14.25823202432809</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.96548648755174</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>79.4262478926251</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>36.30694539606361</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>179.3544845744805</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.5688841976929</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>127.2568112467065</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>118.6564717779742</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.7017074173499367</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>124.9899273367996</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>112.2233770574204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506661</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506661</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914271</v>
@@ -26325,37 +26325,37 @@
         <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,25 +26441,25 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744326</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744335</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.25639174418</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744202</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="O4" t="n">
-        <v>8727.256391744202</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-686378.2771013203</v>
+        <v>-686378.2771013201</v>
       </c>
       <c r="C6" t="n">
         <v>428373.5064745992</v>
@@ -26530,40 +26530,40 @@
         <v>268358.0437265998</v>
       </c>
       <c r="E6" t="n">
-        <v>210455.0317289982</v>
+        <v>210107.6524746413</v>
       </c>
       <c r="F6" t="n">
-        <v>535867.4935363537</v>
+        <v>535520.1142819971</v>
       </c>
       <c r="G6" t="n">
-        <v>535867.4935363538</v>
+        <v>535520.1142819966</v>
       </c>
       <c r="H6" t="n">
-        <v>535867.4935363538</v>
+        <v>535520.1142819966</v>
       </c>
       <c r="I6" t="n">
-        <v>535867.4935363536</v>
+        <v>535520.1142819966</v>
       </c>
       <c r="J6" t="n">
-        <v>368262.315726371</v>
+        <v>367914.9364720139</v>
       </c>
       <c r="K6" t="n">
-        <v>535867.4935363537</v>
+        <v>535520.1142819963</v>
       </c>
       <c r="L6" t="n">
-        <v>487573.5235281629</v>
+        <v>487226.1442738057</v>
       </c>
       <c r="M6" t="n">
-        <v>450812.4656008419</v>
+        <v>450465.0863464846</v>
       </c>
       <c r="N6" t="n">
-        <v>535867.4935363536</v>
+        <v>535520.1142819967</v>
       </c>
       <c r="O6" t="n">
-        <v>535867.4935363538</v>
+        <v>535520.1142819967</v>
       </c>
       <c r="P6" t="n">
-        <v>535867.4935363537</v>
+        <v>535520.1142819965</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973558</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973558</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>309.7844173726985</v>
       </c>
       <c r="G2" t="n">
-        <v>144.3321332515745</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.32731465615294</v>
+        <v>123.3009497565981</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>377.1777239227616</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>201.1535679151711</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>241.4224787492653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>309.8193423825467</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.31347632938798</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.377319120776078e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>491.819738231079</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>243.1729913598529</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>718.5832682008314</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850076</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,10 +35026,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>405.455331617202</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>357.8453308167487</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>481.5356082478342</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>116.3353646931862</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37244,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066174</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>587.2415561174981</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2679909.96833229</v>
+        <v>2681670.498635074</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>97.09162836901297</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>246.3360745058919</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>25.31452326161428</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>116.7550504648075</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>284.2403399280689</v>
       </c>
       <c r="G5" t="n">
-        <v>210.3941348577829</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>22.51287592187436</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>79.4921923050191</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D13" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>207.0967504439659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.14939830226075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>38.05096575280767</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>80.5641289012156</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577434</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577434</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>531.4162778577434</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>531.4162778577434</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>877.9374416333219</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>814.3978474553237</v>
+        <v>783.0370443974457</v>
       </c>
       <c r="C4" t="n">
-        <v>645.4616645274168</v>
+        <v>614.1008614695388</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>463.9842220572031</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>316.0711284748099</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>169.1811809768996</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X4" t="n">
-        <v>1216.838891429094</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y4" t="n">
-        <v>996.0463122855634</v>
+        <v>964.6855092276854</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1110.088185601309</v>
+        <v>350.022587276107</v>
       </c>
       <c r="C5" t="n">
-        <v>741.125668660897</v>
+        <v>350.022587276107</v>
       </c>
       <c r="D5" t="n">
-        <v>741.125668660897</v>
+        <v>350.022587276107</v>
       </c>
       <c r="E5" t="n">
-        <v>741.125668660897</v>
+        <v>350.022587276107</v>
       </c>
       <c r="F5" t="n">
-        <v>330.1397638712894</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4609,10 +4609,10 @@
         <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.22751757712</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1110.088185601309</v>
+        <v>736.6224273402288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>808.8539464365872</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>397.8680416469796</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>386.8359955323802</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>89.25239514114742</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4986,19 +4986,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W10" t="n">
         <v>1310.798574724517</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5190,40 +5190,40 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1938.2863919474</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6141,7 +6141,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2341.482060890433</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7265,10 +7265,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1097.958364892466</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.022181964559</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>778.9055425522232</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>630.9924489698301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.1025014719197</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>316.9064021867997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.1945710289977</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D13" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>79.4262478926251</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7017074173499367</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520048</v>
@@ -26349,10 +26349,10 @@
         <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26444,19 +26444,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-686378.2771013201</v>
+        <v>-686378.2771013207</v>
       </c>
       <c r="C6" t="n">
-        <v>428373.5064745992</v>
+        <v>428373.5064745991</v>
       </c>
       <c r="D6" t="n">
-        <v>268358.0437265998</v>
+        <v>268358.0437265999</v>
       </c>
       <c r="E6" t="n">
-        <v>210107.6524746413</v>
+        <v>210420.2938035625</v>
       </c>
       <c r="F6" t="n">
-        <v>535520.1142819971</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="G6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="H6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="I6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="J6" t="n">
-        <v>367914.9364720139</v>
+        <v>368227.5778009353</v>
       </c>
       <c r="K6" t="n">
-        <v>535520.1142819963</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="L6" t="n">
-        <v>487226.1442738057</v>
+        <v>487538.7856027269</v>
       </c>
       <c r="M6" t="n">
-        <v>450465.0863464846</v>
+        <v>450777.7276754059</v>
       </c>
       <c r="N6" t="n">
-        <v>535520.1142819967</v>
+        <v>535832.7556109178</v>
       </c>
       <c r="O6" t="n">
-        <v>535520.1142819967</v>
+        <v>535832.7556109179</v>
       </c>
       <c r="P6" t="n">
-        <v>535520.1142819965</v>
+        <v>535832.7556109178</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>309.7844173726985</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>139.9018641501617</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>123.3009497565981</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>49.55154957999667</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>122.6357058136426</v>
       </c>
       <c r="G5" t="n">
-        <v>201.1535679151711</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>80.94049690661271</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>19.06405385105159</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0567569711501</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.377319120776078e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36129,10 +36129,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
